--- a/apps/runtests/integration/data/medical_assert_devices.xlsx
+++ b/apps/runtests/integration/data/medical_assert_devices.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>资产编号</t>
   </si>
@@ -67,31 +67,28 @@
     <t>购入日期</t>
   </si>
   <si>
-    <t>ZC00036</t>
-  </si>
-  <si>
-    <t>合成树脂牙</t>
-  </si>
-  <si>
-    <t>专用消毒设备</t>
-  </si>
-  <si>
-    <t>6857-06.2</t>
-  </si>
-  <si>
-    <t>ZNqq1267</t>
-  </si>
-  <si>
-    <t>TYPE12</t>
-  </si>
-  <si>
-    <t>周主任</t>
-  </si>
-  <si>
-    <t>设备科</t>
-  </si>
-  <si>
-    <t>信息科</t>
+    <t>JC0001</t>
+  </si>
+  <si>
+    <t>皮片刀</t>
+  </si>
+  <si>
+    <t>基础外科用刀</t>
+  </si>
+  <si>
+    <t>6801-02</t>
+  </si>
+  <si>
+    <t>jc1000001</t>
+  </si>
+  <si>
+    <t>TYPE001</t>
+  </si>
+  <si>
+    <t>曾老师</t>
+  </si>
+  <si>
+    <t>测试科室</t>
   </si>
   <si>
     <t>332423423423</t>
@@ -100,25 +97,22 @@
     <t>维修中</t>
   </si>
   <si>
-    <t>消毒设备库房001</t>
+    <t>信息设备存储室</t>
   </si>
   <si>
     <t>恒鑫</t>
   </si>
   <si>
-    <t>ZC00037</t>
-  </si>
-  <si>
-    <t>造牙粉</t>
-  </si>
-  <si>
-    <t>6857-06.1</t>
-  </si>
-  <si>
-    <t>ZNqq1268</t>
-  </si>
-  <si>
-    <t>TYPE13</t>
+    <t>JC0002</t>
+  </si>
+  <si>
+    <t>柳叶刀</t>
+  </si>
+  <si>
+    <t>jc1000002</t>
+  </si>
+  <si>
+    <t>TYPE002</t>
   </si>
   <si>
     <t>332423423424</t>
@@ -127,52 +121,46 @@
     <t>闲置</t>
   </si>
   <si>
-    <t>手术器械存放室001</t>
-  </si>
-  <si>
-    <t>ZC00038</t>
-  </si>
-  <si>
-    <t>义齿软衬材料</t>
-  </si>
-  <si>
-    <t>ZNqq1269</t>
-  </si>
-  <si>
-    <t>TYPE14</t>
+    <t>JC0003</t>
+  </si>
+  <si>
+    <t>铲刀</t>
+  </si>
+  <si>
+    <t>jc1000003</t>
+  </si>
+  <si>
+    <t>TYPE003</t>
   </si>
   <si>
     <t>332423423425</t>
   </si>
   <si>
-    <t>消毒设备库房002</t>
-  </si>
-  <si>
-    <t>ZC00039</t>
-  </si>
-  <si>
-    <t>义齿基托树脂</t>
-  </si>
-  <si>
-    <t>ZNqq1270</t>
-  </si>
-  <si>
-    <t>TYPE15</t>
+    <t>JC0004</t>
+  </si>
+  <si>
+    <t>修脚刀</t>
+  </si>
+  <si>
+    <t>jc1000004</t>
+  </si>
+  <si>
+    <t>TYPE004</t>
   </si>
   <si>
     <t>332423423426</t>
   </si>
   <si>
-    <t>ZC00040</t>
-  </si>
-  <si>
-    <t>低温生物降温仪</t>
-  </si>
-  <si>
-    <t>ZNqq1271</t>
-  </si>
-  <si>
-    <t>TYPE16</t>
+    <t>JC0005</t>
+  </si>
+  <si>
+    <t>皮屑刮刀</t>
+  </si>
+  <si>
+    <t>jc1000005</t>
+  </si>
+  <si>
+    <t>TYPE005</t>
   </si>
   <si>
     <t>332423423427</t>
@@ -181,22 +169,16 @@
     <t>使用中</t>
   </si>
   <si>
-    <t>ZC00041</t>
-  </si>
-  <si>
-    <t>自动控制电热煮沸消毒器</t>
-  </si>
-  <si>
-    <t>医用低温设备</t>
-  </si>
-  <si>
-    <t>6858-02</t>
-  </si>
-  <si>
-    <t>ZNqq1272</t>
-  </si>
-  <si>
-    <t>TYPE17</t>
+    <t>JC0006</t>
+  </si>
+  <si>
+    <t>锋刀</t>
+  </si>
+  <si>
+    <t>jc1000006</t>
+  </si>
+  <si>
+    <t>TYPE006</t>
   </si>
   <si>
     <t>332423423428</t>
@@ -205,19 +187,17 @@
     <t>已报废</t>
   </si>
   <si>
-    <t>ZC00042</t>
-  </si>
-  <si>
-    <t>电热煮沸消毒器</t>
-  </si>
-  <si>
-    <t>消毒和灭菌设备及器具</t>
-  </si>
-  <si>
-    <t>ZNqq1273</t>
-  </si>
-  <si>
-    <t>TYPE18</t>
+    <t>JC0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解剖刀
+</t>
+  </si>
+  <si>
+    <t>jc1000007</t>
+  </si>
+  <si>
+    <t>TYPE007</t>
   </si>
   <si>
     <t>332423423429</t>
@@ -228,12 +208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -270,23 +250,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,15 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -323,7 +287,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,21 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -360,8 +338,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,38 +376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,10 +392,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -455,13 +434,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,37 +572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,127 +596,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,23 +736,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,7 +746,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,28 +766,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,9 +807,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,152 +835,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1017,7 +996,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,28 +1005,22 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2223,7 +2196,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="7"/>
@@ -2237,8 +2210,8 @@
     <col min="7" max="7" width="10.1666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.2583333333333" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.175" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.175" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.8333333333333" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.675" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.175" style="1" customWidth="1"/>
@@ -2309,340 +2282,340 @@
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="13">
+        <v>41915</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="15">
-        <v>41915</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="15">
+      <c r="P2" s="13">
         <v>41915</v>
       </c>
     </row>
     <row r="3" ht="22.35" customHeight="1" spans="1:16">
       <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="13">
+        <v>41916</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="15">
-        <v>41916</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="15">
+      <c r="N3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="13">
         <v>41916</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1" spans="1:16">
       <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="13">
+        <v>41917</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="15">
-        <v>41917</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="15">
+        <v>33</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="13">
         <v>41917</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1" spans="1:16">
       <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="13">
+        <v>41918</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="15">
-        <v>41918</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="15">
+      <c r="P5" s="13">
         <v>41918</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1" spans="1:16">
       <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="13">
+        <v>41919</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="M6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="15">
-        <v>41919</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="N6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="13">
         <v>41919</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1" spans="1:16">
       <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="11">
+        <v>6</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13">
+        <v>41920</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="M7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="15">
-        <v>41920</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="15">
+      <c r="P7" s="13">
         <v>41920</v>
       </c>
     </row>
     <row r="8" ht="22.35" customHeight="1" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="11">
+        <v>7</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="J8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="13">
         <v>41921</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="15">
+      <c r="O8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="13">
         <v>41921</v>
       </c>
     </row>

--- a/apps/runtests/integration/data/medical_assert_devices.xlsx
+++ b/apps/runtests/integration/data/medical_assert_devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="13320"/>
+    <workbookView windowWidth="28695" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 某医院资产设备表格" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>资产编号</t>
   </si>
@@ -208,11 +208,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -257,7 +257,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +309,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -287,44 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +334,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,21 +356,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,21 +370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -399,9 +378,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,19 +434,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +530,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,151 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +736,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -746,7 +770,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,8 +807,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -789,194 +830,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2189,34 +2189,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="8.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.175" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.35238095238095" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.8380952380952" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.175" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.2583333333333" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.175" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.84761904761905" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.17142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.2571428571429" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.17142857142857" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.8333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.675" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.175" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.8333333333333" style="1" customWidth="1"/>
-    <col min="17" max="256" width="16.35" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.8380952380952" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6761904761905" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.17142857142857" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.8285714285714" style="1" customWidth="1"/>
+    <col min="17" max="256" width="16.352380952381" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.55" customHeight="1" spans="1:16">
